--- a/biology/Zoologie/Ecliptopera_capitata/Ecliptopera_capitata.xlsx
+++ b/biology/Zoologie/Ecliptopera_capitata/Ecliptopera_capitata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Cidarie de la Balsamine ou Cidarie à tête jaune, Ecliptopera capitata, est une espèce de lépidoptères (papillons) de la famille des Geometridae, de la sous-famille des Larentiinae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La longueur de ses ailes antérieures est de 11 à 13 mm.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurasiatique, on le trouve en Europe surtout centrale et orientale puis en Asie à travers la Sibérie jusqu'au Japon. Il est absent des îles Britanniques. En France, il est confiné à de rares stations du nord-est : Gaume, Vosges, Alsace ; aussi dans les Alpes, Pyrénées, Massif central.
 </t>
@@ -573,7 +589,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'imago vole de mai à septembre en une génération (seconde génération partielle), dans des sites frais, humides, au bord de ruisseaux, dans des clairières de forêts sans s'éloigner de la plante hôte de sa chenille : la balsamine des bois (Impatiens noli-tangere).
 La chrysalide hiverne.
